--- a/Employee_Reports35/Dennis Delfino Daginotan Q0471.xlsx
+++ b/Employee_Reports35/Dennis Delfino Daginotan Q0471.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -989,11 +989,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">

--- a/Employee_Reports35/Dennis Delfino Daginotan Q0471.xlsx
+++ b/Employee_Reports35/Dennis Delfino Daginotan Q0471.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -989,11 +989,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
